--- a/StructureDefinition-ncpi-group.xlsx
+++ b/StructureDefinition-ncpi-group.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T22:45:35+00:00</t>
+    <t>2022-04-26T22:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
